--- a/data/dev1/test.xlsx
+++ b/data/dev1/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -358,6 +358,21 @@
         <v>123</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/dev1/test.xlsx
+++ b/data/dev1/test.xlsx
@@ -355,22 +355,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>123</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>123</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>123</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/data/dev1/test.xlsx
+++ b/data/dev1/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -373,6 +373,21 @@
         <v>4</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/dev1/test.xlsx
+++ b/data/dev1/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,6 +388,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/data/dev1/test.xlsx
+++ b/data/dev1/test.xlsx
@@ -355,17 +355,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1</v>
+        <v>1561693212.685886</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1561693212.983883</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>1561693213.983479</v>
       </c>
     </row>
     <row r="4">

--- a/data/dev1/test.xlsx
+++ b/data/dev1/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -355,17 +355,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1561693212.685886</v>
+        <v>1561693769.459513</v>
+      </c>
+      <c r="B1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1561693212.983883</v>
+        <v>1561693769.951974</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1561693213.983479</v>
+        <v>1561693770.950442</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">

--- a/data/dev1/test.xlsx
+++ b/data/dev1/test.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -355,70 +355,482 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1561693769.459513</v>
+        <v>1561694179.93645</v>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="D1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1561693769.951974</v>
+        <v>1561694180.934546</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1561693770.950442</v>
+        <v>1561694181.936236</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>1561694182.936607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1561694183.937096</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>1561694190.273717</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7</v>
+        <v>1561694190.93591</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>4</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>1561694191.935982</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2</v>
+      </c>
+      <c r="E8" t="n">
+        <v>3</v>
+      </c>
+      <c r="F8" t="n">
+        <v>4</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+      <c r="I8" t="n">
+        <v>7</v>
+      </c>
+      <c r="J8" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>9</v>
+        <v>1561694192.93581</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
+        <v>1561694193.935967</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7</v>
+      </c>
+      <c r="J10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1561694194.936552</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>5</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1561694195.936055</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1561694196.934485</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>5</v>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>7</v>
+      </c>
+      <c r="J13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>1561694197.935102</v>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4</v>
+      </c>
+      <c r="G14" t="n">
+        <v>5</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7</v>
+      </c>
+      <c r="J14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1561694198.935214</v>
+      </c>
+      <c r="B15" t="n">
         <v>10</v>
+      </c>
+      <c r="C15" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
+      <c r="F15" t="n">
+        <v>4</v>
+      </c>
+      <c r="G15" t="n">
+        <v>5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
